--- a/Assets/Tests/Editor/Gacha.xlsx
+++ b/Assets/Tests/Editor/Gacha.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,88 @@
     <sheet name="__Group2" sheetId="2" r:id="rId3"/>
     <sheet name="__Group3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="name2">Gacha!$A$1</definedName>
+    <definedName name="name22">Gacha!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这里是名子</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这里是概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这里是内容</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>hotpot_food_006</t>
   </si>
@@ -122,75 +198,75 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__Group1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__Group2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__Group3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotpot_food_008</t>
+  </si>
+  <si>
+    <t>hotpot_food_011</t>
+  </si>
+  <si>
+    <t>hotpot_food_012</t>
+  </si>
+  <si>
+    <t>hotpot_food_013</t>
+  </si>
+  <si>
+    <t>hotpot_food_014</t>
+  </si>
+  <si>
+    <t>hotpot_food_015</t>
+  </si>
+  <si>
+    <t>hotpot_food_018</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>probability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>items</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>__Group1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>__Group2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>__Group3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hotpot_food_008</t>
-  </si>
-  <si>
-    <t>hotpot_food_011</t>
-  </si>
-  <si>
-    <t>hotpot_food_012</t>
-  </si>
-  <si>
-    <t>hotpot_food_013</t>
-  </si>
-  <si>
-    <t>hotpot_food_014</t>
-  </si>
-  <si>
-    <t>hotpot_food_015</t>
-  </si>
-  <si>
-    <t>hotpot_food_018</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>hotpot_food_019</t>
   </si>
   <si>
@@ -315,18 +391,49 @@
   </si>
   <si>
     <t>hotpot_food_097</t>
+  </si>
+  <si>
+    <t>__Group1!A1</t>
+  </si>
+  <si>
+    <t>Group4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,17 +445,9 @@
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -425,23 +524,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -742,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,11 +858,11 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" ph="1">
         <v>35</v>
       </c>
       <c r="C1" t="s">
@@ -811,9 +913,24 @@
         <v>44</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" location="__Group1!A1" display="__Group1!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -821,9 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -881,7 +996,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -891,7 +1006,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1:B65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1017,7 +1132,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1281,7 +1396,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Tests/Editor/Gacha.xlsx
+++ b/Assets/Tests/Editor/Gacha.xlsx
@@ -848,7 +848,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
